--- a/words.xlsx
+++ b/words.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12640" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="12640" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="162">
   <si>
     <t>Spicy</t>
   </si>
@@ -494,6 +496,18 @@
   </si>
   <si>
     <t>shrimp</t>
+  </si>
+  <si>
+    <t>veggie</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
 </sst>
 </file>
@@ -557,8 +571,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -603,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +651,13 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -642,6 +677,13 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -974,7 +1016,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1127,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2060,4 +2102,608 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12640" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="13240" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="163">
   <si>
     <t>Spicy</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>healthy</t>
+  </si>
+  <si>
+    <t>sweet</t>
   </si>
 </sst>
 </file>
@@ -2106,18 +2109,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2323,8 +2324,11 @@
       <c r="G12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2340,8 +2344,11 @@
       <c r="G13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2419,8 +2426,11 @@
       <c r="G18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2437,7 +2447,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2454,7 +2464,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2497,7 +2507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2526,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
